--- a/simulations/raw_inclusion_exclusion/Leenaars_2019 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Leenaars_2019 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.8988300068823124</v>
+        <v>0.9012388162422574</v>
       </c>
       <c r="I3">
-        <v>0.005725016494950008</v>
+        <v>0.004344516063543623</v>
       </c>
       <c r="J3">
         <v>0.8823529411764706</v>
       </c>
       <c r="K3">
-        <v>42.1764705882353</v>
+        <v>34.1764705882353</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -755,34 +755,34 @@
         <v>15</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
         <v>12</v>
       </c>
-      <c r="S3">
-        <v>16</v>
-      </c>
       <c r="T3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="U3">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="V3">
-        <v>5784</v>
+        <v>5791</v>
       </c>
       <c r="W3">
+        <v>5790</v>
+      </c>
+      <c r="X3">
         <v>5783</v>
       </c>
-      <c r="X3">
-        <v>5779</v>
-      </c>
       <c r="Y3">
-        <v>5755</v>
+        <v>5769</v>
       </c>
       <c r="Z3">
-        <v>5739</v>
+        <v>5750</v>
       </c>
       <c r="AA3">
         <v>16</v>
@@ -800,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="AF3">
-        <v>0.998102</v>
+        <v>0.99931</v>
       </c>
       <c r="AG3">
+        <v>0.9991370000000001</v>
+      </c>
+      <c r="AH3">
         <v>0.997929</v>
       </c>
-      <c r="AH3">
-        <v>0.997239</v>
-      </c>
       <c r="AI3">
-        <v>0.993097</v>
+        <v>0.995513</v>
       </c>
       <c r="AJ3">
-        <v>0.990336</v>
+        <v>0.992235</v>
       </c>
     </row>
   </sheetData>
